--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/WASHINGTON_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/WASHINGTON_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1088"/>
+  <dimension ref="A1:D1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C12">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C34">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C49">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C54">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C63">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C86">
@@ -1582,7 +1582,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C95">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C123">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C131">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C136">
@@ -2265,12 +2265,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C143">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C145">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C147">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C156">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C163">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C171">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C176">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C178">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C182">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C185">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C188">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C191">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C204">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C214">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C218">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C222">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C228">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C230">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C235">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C242">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C248">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C252">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C259">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C263">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C277">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C281">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C287">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C290">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C299">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C302">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C306">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C311">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C312">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C314">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C318">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C321">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C326">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C330">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C334">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C336">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C337">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C346">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C355">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C359">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C363">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C368">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C377">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C380">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C382">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C384">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C385">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C389">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C392">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C398">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C402">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C407">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C427">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C428">
@@ -7006,7 +7006,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C505">
@@ -7084,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C511">
@@ -7136,7 +7136,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C515">
@@ -7271,7 +7271,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C525">
@@ -7349,7 +7349,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C531">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C542">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C545">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C548">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C551">
@@ -7645,7 +7645,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C553">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C554">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C556">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C565">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C567">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C570">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C576">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C577">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C582">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C585">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C596">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C603">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C626">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C648">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C653">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C663">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C677">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C681">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C692">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C736">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C738">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C741">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C742">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C744">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C746">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C757">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C781">
@@ -10627,7 +10627,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C782">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C787">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C789">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C797">
@@ -10900,7 +10900,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C803">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C813">
@@ -11056,7 +11056,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C815">
@@ -11134,7 +11134,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C821">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C825">
@@ -11199,7 +11199,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C826">
@@ -11238,7 +11238,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C829">
@@ -11251,7 +11251,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C830">
@@ -11290,7 +11290,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C833">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C853">
@@ -11568,7 +11568,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C854">
@@ -11607,7 +11607,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C857">
@@ -11646,7 +11646,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C860">
@@ -11672,7 +11672,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C862">
@@ -11890,7 +11890,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C878">
@@ -11942,7 +11942,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C882">
@@ -12407,7 +12407,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C917">
@@ -12747,7 +12747,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C942">
@@ -12786,7 +12786,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C945">
@@ -12825,7 +12825,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C948">
@@ -12864,7 +12864,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C951">
@@ -12916,7 +12916,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C960">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C974">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C989">
@@ -13415,7 +13415,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C993">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C997">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C999">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1004">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1006">
@@ -13675,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1013">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1015">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1017">
@@ -13883,7 +13883,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1029">
@@ -14231,7 +14231,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1055">
@@ -14361,7 +14361,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1065">
@@ -14374,7 +14374,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1066">
@@ -14439,7 +14439,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1071">
@@ -14452,7 +14452,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1072">
@@ -14465,7 +14465,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1073">
@@ -14530,7 +14530,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1078">
@@ -14590,41 +14590,6 @@
       </c>
       <c r="D1082">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
